--- a/output/ejecucion_2/results/base0/base0_ci_xgb_nrs.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_xgb_nrs.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
-    <t>_tejgtotfun_f5r08pgrcopc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5pgrco</t>
-  </si>
-  <si>
-    <t>_devppimge_r18ct05biser</t>
+    <t>_tejgtotfun_f5amb</t>
+  </si>
+  <si>
+    <t>_tejgfun_f2ct05pgrco</t>
   </si>
   <si>
     <t>_tejgfun_f5ct05opseg</t>
   </si>
   <si>
-    <t>_pimgfun_f5r18ct06opseg</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5r08ct05opsegpc</t>
-  </si>
-  <si>
-    <t>_pimgfun_f5r18ct06opsegpc</t>
+    <t>piagtotfun_f5r07pgrcopc</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct06cydeppc</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcrpc</t>
+  </si>
+  <si>
+    <t>piagct_r18gstcppc</t>
+  </si>
+  <si>
+    <t>pimgfun_f5ct06trans</t>
+  </si>
+  <si>
+    <t>dfgpimpiatotfun_f5r07pgrco</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f5r18pgrco</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f5trans</t>
+  </si>
+  <si>
+    <t>pimgtotfun_f5comepc</t>
+  </si>
+  <si>
+    <t>tdvgtotfun_f5r18salud</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5r18opseg</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5ct06cydep</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagct_r18gstcppc</t>
   </si>
   <si>
     <t>dfgdevpiagfun_f5r18ct05transpc</t>
   </si>
   <si>
-    <t>tejgge_r07ct05otgst</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f5r07ct06agropc</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f5r07ct06agro</t>
-  </si>
-  <si>
-    <t>compu_muni_1</t>
-  </si>
-  <si>
-    <t>_pimgfun_f5r07ct05agropc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5energpc</t>
-  </si>
-  <si>
-    <t>_piagfun_f5r07ct06prots</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r07ct05transpc</t>
-  </si>
-  <si>
-    <t>piagtotfun_f5r07salud</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcr</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06cydep</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f1salud</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f1ct06transpc</t>
-  </si>
-  <si>
-    <t>_pimgfun_f1ct05trans</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f5ct06agro</t>
-  </si>
-  <si>
-    <t>_devppimct_r18gstcr</t>
-  </si>
-  <si>
-    <t>_devppimgge_r13ct05biser</t>
-  </si>
-  <si>
-    <t>_pimgtotfun_f2pgrcopc</t>
-  </si>
-  <si>
-    <t>_pimgfun_f2ct05agro</t>
-  </si>
-  <si>
-    <t>compu_muni_5</t>
-  </si>
-  <si>
-    <t>_dfgpimpiact_r09gstcr</t>
-  </si>
-  <si>
-    <t>dfgdevpiagct_r07gstcr</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f2ct05saludpc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiatotfun_f5r08trans</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r18ct05cydep</t>
-  </si>
-  <si>
-    <t>tdvgfun_f5r18ct06opsegpc</t>
-  </si>
-  <si>
-    <t>pimgfun_f5ct06trans</t>
-  </si>
-  <si>
-    <t>pimgtotfun_f3transpc</t>
-  </si>
-  <si>
-    <t>per_038</t>
-  </si>
-  <si>
-    <t>_pimgtotfun_f5prots</t>
-  </si>
-  <si>
-    <t>bvleche_4</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f5r18sanpc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r08ct05come</t>
-  </si>
-  <si>
-    <t>devppimfun_f1ct06trans</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagtotfun_f2trans</t>
-  </si>
-  <si>
-    <t>tdvgfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r18ct05san</t>
-  </si>
-  <si>
-    <t>dfgdevpiagrb_foncpc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5ct05prso</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5r18ct05saludpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f5r07viv</t>
+    <t>devppimfun_f5r07ct06cydep</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r07pgrco</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5edu</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagge_r09ct05biserpc</t>
+  </si>
+  <si>
+    <t>mod_104</t>
+  </si>
+  <si>
+    <t>tdvgfun_f2ct06salud</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5r07turi</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f1ct06san</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f5r08cydeppc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct05pgrco</t>
+  </si>
+  <si>
+    <t>tdvgfun_f1ct05transpc</t>
+  </si>
+  <si>
+    <t>_piagfun_f1ct05trans</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r07ct05transpc</t>
+  </si>
+  <si>
+    <t>_tdvgtotfun_f5r08opseg</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5amb</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5ct05salud</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagtotfun_f5saludpc</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagfun_f5r07ct05saludpc</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct06pgrco</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f3ct06edu</t>
+  </si>
+  <si>
+    <t>impres_muni_6</t>
+  </si>
+  <si>
+    <t>dfgpimpiact_r07gstcp</t>
+  </si>
+  <si>
+    <t>piagfun_f5ct05cydeppc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5ct06prots</t>
+  </si>
+  <si>
+    <t>per_012</t>
+  </si>
+  <si>
+    <t>dfgpimpiact_r09gstcr</t>
+  </si>
+  <si>
+    <t>pimgct_r00gstcp</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r18ct05cydep</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f5protspc</t>
+  </si>
+  <si>
+    <t>_pimgfun_f2ct05vivpc</t>
+  </si>
+  <si>
+    <t>tdvgge_r13ct06acanf</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05prots</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5ct06agropc</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01838197931647301</v>
+        <v>0.03063949942588806</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01333087496459484</v>
+        <v>0.02281138114631176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01286611333489418</v>
+        <v>0.01305772364139557</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01193358097225428</v>
+        <v>0.01299246214330196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.008552751503884792</v>
+        <v>0.01081372890621424</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.008310828357934952</v>
+        <v>0.009939749725162983</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.007634919136762619</v>
+        <v>0.009924954734742641</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.007386981509625912</v>
+        <v>0.009797048754990101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.006678218487650156</v>
+        <v>0.009533995762467384</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.006654649507254362</v>
+        <v>0.009142960421741009</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.006533917039632797</v>
+        <v>0.00888920109719038</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.006533758714795113</v>
+        <v>0.008313522674143314</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.006059239618480206</v>
+        <v>0.008286050520837307</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.005766385700553656</v>
+        <v>0.007981852628290653</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.005730477627366781</v>
+        <v>0.007303737103939056</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.00569632975384593</v>
+        <v>0.007178127765655518</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.005676706787198782</v>
+        <v>0.007120235823094845</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.005630193743854761</v>
+        <v>0.007120139896869659</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.00559238251298666</v>
+        <v>0.006827239878475666</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.005397163331508636</v>
+        <v>0.006097807548940182</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.005375391338020563</v>
+        <v>0.005942713003605604</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.005358255002647638</v>
+        <v>0.005838421639055014</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.005214950535446405</v>
+        <v>0.005726317409425974</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.005088569596409798</v>
+        <v>0.005561329424381256</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.005010118708014488</v>
+        <v>0.005425289738923311</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.005003760103136301</v>
+        <v>0.005391712766140699</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.004977304022759199</v>
+        <v>0.005294968374073505</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.00488563533872366</v>
+        <v>0.005181117448955774</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.004780230112373829</v>
+        <v>0.005140307359397411</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.004733883775770664</v>
+        <v>0.005004383623600006</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.004636991303414106</v>
+        <v>0.004977420438081026</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.004514040425419807</v>
+        <v>0.004938862752169371</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.004495118744671345</v>
+        <v>0.004903604742139578</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.004473526496440172</v>
+        <v>0.004799069371074438</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.004425647668540478</v>
+        <v>0.00479853805154562</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.004391592927277088</v>
+        <v>0.004752232693135738</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.004360619932413101</v>
+        <v>0.004750834777951241</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.004307927563786507</v>
+        <v>0.004704366438090801</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.004275300540030003</v>
+        <v>0.004691069480031729</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.00420998502522707</v>
+        <v>0.00461532361805439</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.004125276580452919</v>
+        <v>0.004500477574765682</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.004057753831148148</v>
+        <v>0.004479204770177603</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.004052610136568546</v>
+        <v>0.004364656284451485</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004043586552143097</v>
+        <v>0.004276749677956104</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.003933175001293421</v>
+        <v>0.004265927243977785</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.003797782817855477</v>
+        <v>0.004233721178025007</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.003759788814932108</v>
+        <v>0.004199815448373556</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.003633757587522268</v>
+        <v>0.004188514314591885</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.003633360145613551</v>
+        <v>0.004157342482358217</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.003606918500736356</v>
+        <v>0.004147694911807775</v>
       </c>
     </row>
   </sheetData>
